--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969411.2147789041</v>
+        <v>968978.8336773268</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217325.2790073353</v>
+        <v>217325.2790073377</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.122072624405</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>99.20875084754839</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
@@ -707,10 +707,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -786,22 +786,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>144.3669127720775</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>106.812427126709</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>36.50557789824314</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>193.4776635554221</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>327.1045838266576</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>73.31937269937718</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -944,19 +944,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>39.05422185060198</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>194.3839022690741</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>77.98390611024938</v>
+        <v>110.9929588724606</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>284.5913199760518</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>286.9505541952377</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>121.9318743234123</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1224,13 +1224,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>26.01386798712263</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>21.44912544529489</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>190.8221097585001</v>
       </c>
       <c r="E11" t="n">
-        <v>6.177615640177805</v>
+        <v>299.8236806008148</v>
       </c>
       <c r="F11" t="n">
         <v>318.9954966887919</v>
@@ -1388,7 +1388,7 @@
         <v>238.4788795645244</v>
       </c>
       <c r="I11" t="n">
-        <v>80.07484470915254</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>94.34250352181017</v>
+        <v>94.34250352181014</v>
       </c>
       <c r="T11" t="n">
-        <v>131.1011747121595</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>161.3223008290065</v>
       </c>
       <c r="V11" t="n">
-        <v>242.5952992688786</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.8953987468356</v>
       </c>
       <c r="X11" t="n">
         <v>287.1956569795822</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5922547757809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1506,7 +1506,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.70563290339662</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.9056277487971</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.52699214637546</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27.44214568160844</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.94166633034122</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.21636905168906</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.76473667437948</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>51.74683185920883</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>120.5584828762099</v>
       </c>
       <c r="T13" t="n">
-        <v>37.10172372196925</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>193.3041550216517</v>
@@ -1591,7 +1591,7 @@
         <v>192.2806553736355</v>
       </c>
       <c r="X13" t="n">
-        <v>137.9257573694386</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>128.8006251255063</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.6545267831696</v>
+        <v>293.6545267831702</v>
       </c>
       <c r="C14" t="n">
-        <v>281.6658437408513</v>
+        <v>281.6658437408519</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>48.03145994808932</v>
       </c>
       <c r="E14" t="n">
-        <v>294.3892853552848</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>313.561101443262</v>
+        <v>313.5611014432626</v>
       </c>
       <c r="G14" t="n">
-        <v>315.4943693406845</v>
+        <v>315.4943693406851</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64044946362256</v>
+        <v>74.6404494636232</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.90810827628019</v>
+        <v>88.90810827628083</v>
       </c>
       <c r="T14" t="n">
-        <v>85.77300205384458</v>
+        <v>125.6667794666302</v>
       </c>
       <c r="U14" t="n">
-        <v>155.8879055834765</v>
+        <v>155.8879055834772</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>237.1609040233493</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4610035013062</v>
       </c>
       <c r="X14" t="n">
-        <v>281.7612617340522</v>
+        <v>281.7612617340528</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.157859530251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>84.37298759326521</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1737,7 +1737,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.27123765786664</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.47123250326776</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.09259690084615</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>54.50727108481126</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.7819738061591</v>
+        <v>70.78197380615974</v>
       </c>
       <c r="H16" t="n">
-        <v>61.33034142884952</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>46.31243661367887</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.57798623209682</v>
       </c>
       <c r="S16" t="n">
-        <v>115.1240876306799</v>
+        <v>11.7310739639871</v>
       </c>
       <c r="T16" t="n">
-        <v>134.3985863128086</v>
+        <v>134.3985863128092</v>
       </c>
       <c r="U16" t="n">
-        <v>187.8697597761217</v>
+        <v>187.8697597761224</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6793740574922</v>
+        <v>161.6793740574929</v>
       </c>
       <c r="W16" t="n">
-        <v>186.8462601281055</v>
+        <v>186.8462601281061</v>
       </c>
       <c r="X16" t="n">
-        <v>83.18510718820575</v>
+        <v>132.4913621239093</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>123.3662298799769</v>
       </c>
     </row>
     <row r="17">
@@ -1938,7 +1938,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>84.37298759326521</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2217,7 +2217,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.3037924784242</v>
+        <v>261.3037924784244</v>
       </c>
       <c r="C26" t="n">
-        <v>249.3151094361059</v>
+        <v>249.3151094361062</v>
       </c>
       <c r="D26" t="n">
-        <v>240.2964134806339</v>
+        <v>240.2964134806341</v>
       </c>
       <c r="E26" t="n">
-        <v>262.0385510505395</v>
+        <v>262.0385510505397</v>
       </c>
       <c r="F26" t="n">
-        <v>281.2103671385166</v>
+        <v>281.2103671385169</v>
       </c>
       <c r="G26" t="n">
-        <v>283.1436350359392</v>
+        <v>283.1436350359394</v>
       </c>
       <c r="H26" t="n">
-        <v>200.693750014249</v>
+        <v>200.6937500142493</v>
       </c>
       <c r="I26" t="n">
-        <v>42.28971515887719</v>
+        <v>42.28971515887741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.55737397153482</v>
+        <v>56.55737397153504</v>
       </c>
       <c r="T26" t="n">
-        <v>93.31604516188418</v>
+        <v>93.3160451618844</v>
       </c>
       <c r="U26" t="n">
-        <v>123.5371712787311</v>
+        <v>123.5371712787314</v>
       </c>
       <c r="V26" t="n">
-        <v>204.8101697186033</v>
+        <v>204.8101697186035</v>
       </c>
       <c r="W26" t="n">
-        <v>230.1102691965602</v>
+        <v>230.1102691965604</v>
       </c>
       <c r="X26" t="n">
-        <v>249.4105274293068</v>
+        <v>249.4105274293071</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.8071252255056</v>
+        <v>260.8071252255058</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>112.8757236914449</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2700,7 +2700,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014133</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.92050335312126</v>
+        <v>52.92050335312149</v>
       </c>
       <c r="C28" t="n">
-        <v>39.12049819852174</v>
+        <v>39.12049819852197</v>
       </c>
       <c r="D28" t="n">
-        <v>22.74186259610013</v>
+        <v>22.74186259610036</v>
       </c>
       <c r="E28" t="n">
-        <v>21.68961245187958</v>
+        <v>21.68961245187981</v>
       </c>
       <c r="F28" t="n">
-        <v>22.15653678006589</v>
+        <v>22.15653678006612</v>
       </c>
       <c r="G28" t="n">
-        <v>38.43123950141373</v>
+        <v>38.43123950141396</v>
       </c>
       <c r="H28" t="n">
-        <v>28.97960712410415</v>
+        <v>28.97960712410438</v>
       </c>
       <c r="I28" t="n">
-        <v>13.9617023089335</v>
+        <v>13.96170230893372</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.22725192735081</v>
+        <v>19.22725192735103</v>
       </c>
       <c r="S28" t="n">
-        <v>82.77335332593455</v>
+        <v>82.77335332593478</v>
       </c>
       <c r="T28" t="n">
-        <v>102.0478520080632</v>
+        <v>102.0478520080634</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5190254713764</v>
+        <v>155.5190254713766</v>
       </c>
       <c r="V28" t="n">
-        <v>129.3286397527469</v>
+        <v>129.3286397527471</v>
       </c>
       <c r="W28" t="n">
-        <v>154.4955258233601</v>
+        <v>154.4955258233603</v>
       </c>
       <c r="X28" t="n">
-        <v>100.1406278191632</v>
+        <v>100.1406278191635</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01549557523091</v>
+        <v>91.01549557523114</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.222259041004</v>
+        <v>266.7381877239537</v>
       </c>
       <c r="C29" t="n">
-        <v>254.7495046816358</v>
+        <v>254.7495046816355</v>
       </c>
       <c r="D29" t="n">
-        <v>245.7308087261638</v>
+        <v>245.7308087261634</v>
       </c>
       <c r="E29" t="n">
-        <v>267.4729462960694</v>
+        <v>267.472946296069</v>
       </c>
       <c r="F29" t="n">
-        <v>286.6447623840465</v>
+        <v>286.6447623840461</v>
       </c>
       <c r="G29" t="n">
-        <v>288.5780302814691</v>
+        <v>288.5780302814687</v>
       </c>
       <c r="H29" t="n">
-        <v>206.128145259779</v>
+        <v>206.1281452597786</v>
       </c>
       <c r="I29" t="n">
-        <v>47.7241104044071</v>
+        <v>47.72411040440672</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.99176921706473</v>
+        <v>61.99176921706434</v>
       </c>
       <c r="T29" t="n">
-        <v>98.75044040741409</v>
+        <v>98.75044040741371</v>
       </c>
       <c r="U29" t="n">
-        <v>128.971566524261</v>
+        <v>47.45563784132175</v>
       </c>
       <c r="V29" t="n">
-        <v>210.2445649641332</v>
+        <v>210.2445649641328</v>
       </c>
       <c r="W29" t="n">
-        <v>235.5446644420901</v>
+        <v>235.5446644420898</v>
       </c>
       <c r="X29" t="n">
-        <v>254.8449226748367</v>
+        <v>254.8449226748364</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.2415204710355</v>
+        <v>266.2415204710351</v>
       </c>
     </row>
     <row r="30">
@@ -2928,13 +2928,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554797</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.35489859865118</v>
+        <v>58.35489859865079</v>
       </c>
       <c r="C31" t="n">
-        <v>44.55489344405166</v>
+        <v>44.55489344405127</v>
       </c>
       <c r="D31" t="n">
-        <v>28.17625784163005</v>
+        <v>28.17625784162966</v>
       </c>
       <c r="E31" t="n">
-        <v>27.1240076974095</v>
+        <v>27.12400769740911</v>
       </c>
       <c r="F31" t="n">
-        <v>27.59093202559581</v>
+        <v>27.59093202559542</v>
       </c>
       <c r="G31" t="n">
-        <v>43.86563474694364</v>
+        <v>43.86563474694326</v>
       </c>
       <c r="H31" t="n">
-        <v>34.41400236963406</v>
+        <v>34.41400236963368</v>
       </c>
       <c r="I31" t="n">
-        <v>19.39609755446341</v>
+        <v>19.39609755446303</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.66164717288072</v>
+        <v>24.66164717288034</v>
       </c>
       <c r="S31" t="n">
-        <v>88.20774857146446</v>
+        <v>88.20774857146408</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4822472535931</v>
+        <v>107.4822472535927</v>
       </c>
       <c r="U31" t="n">
-        <v>160.9534207169063</v>
+        <v>160.9534207169059</v>
       </c>
       <c r="V31" t="n">
-        <v>134.7630349982768</v>
+        <v>134.7630349982764</v>
       </c>
       <c r="W31" t="n">
-        <v>159.92992106889</v>
+        <v>159.9299210688897</v>
       </c>
       <c r="X31" t="n">
-        <v>105.5750230646931</v>
+        <v>105.5750230646928</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.44989082076083</v>
+        <v>96.44989082076044</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3168,7 +3168,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>224.3372187935196</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3402,7 +3402,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>112.875723691445</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133634</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380645</v>
       </c>
       <c r="D44" t="n">
         <v>202.9666599825917</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1344.090090665208</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="C2" t="n">
-        <v>962.156331998015</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="D2" t="n">
-        <v>962.156331998015</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="E2" t="n">
-        <v>567.3706121041218</v>
+        <v>1375.45142018493</v>
       </c>
       <c r="F2" t="n">
-        <v>557.2598254546963</v>
+        <v>961.3002294951002</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1962429492884</v>
+        <v>545.1962429492883</v>
       </c>
       <c r="H2" t="n">
         <v>212.3749685465976</v>
       </c>
       <c r="I2" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J2" t="n">
         <v>111.5563140281993</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6966860729821</v>
+        <v>351.696686072982</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5820591579284</v>
+        <v>699.5820591579283</v>
       </c>
       <c r="M2" t="n">
         <v>1092.821225411016</v>
@@ -4343,37 +4343,37 @@
         <v>1471.152584098732</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.157168571566</v>
+        <v>1655.299337627089</v>
       </c>
       <c r="P2" t="n">
-        <v>1977.888487769683</v>
+        <v>1883.456234083143</v>
       </c>
       <c r="Q2" t="n">
-        <v>1977.888487769683</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R2" t="n">
-        <v>1887.250201265537</v>
+        <v>1887.250201265533</v>
       </c>
       <c r="S2" t="n">
-        <v>1887.250201265537</v>
+        <v>1700.021225895887</v>
       </c>
       <c r="T2" t="n">
-        <v>1887.250201265537</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="U2" t="n">
-        <v>1887.250201265537</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="V2" t="n">
-        <v>1887.250201265537</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="W2" t="n">
-        <v>1887.250201265537</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="X2" t="n">
-        <v>1887.250201265537</v>
+        <v>1475.662279626898</v>
       </c>
       <c r="Y2" t="n">
-        <v>1493.708345841374</v>
+        <v>1475.662279626898</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.8705302574377</v>
+        <v>771.8425203143089</v>
       </c>
       <c r="C3" t="n">
-        <v>757.1668574983925</v>
+        <v>610.1388475552636</v>
       </c>
       <c r="D3" t="n">
-        <v>618.3282204886045</v>
+        <v>471.3002105454757</v>
       </c>
       <c r="E3" t="n">
         <v>471.3002105454757</v>
@@ -4401,58 +4401,58 @@
         <v>207.8779125186346</v>
       </c>
       <c r="H3" t="n">
-        <v>107.9400550653327</v>
+        <v>107.9400550653326</v>
       </c>
       <c r="I3" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J3" t="n">
-        <v>39.55776975539366</v>
+        <v>99.81191628849973</v>
       </c>
       <c r="K3" t="n">
-        <v>39.55776975539366</v>
+        <v>99.81191628849973</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2602336910178</v>
+        <v>465.6337614586154</v>
       </c>
       <c r="M3" t="n">
-        <v>636.2935872012442</v>
+        <v>950.6671149688418</v>
       </c>
       <c r="N3" t="n">
-        <v>1125.820987924241</v>
+        <v>1440.194515691838</v>
       </c>
       <c r="O3" t="n">
-        <v>1518.020938708392</v>
+        <v>1675.792568493982</v>
       </c>
       <c r="P3" t="n">
-        <v>1820.116857984089</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="Q3" t="n">
-        <v>1977.888487769683</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R3" t="n">
-        <v>1918.104218864629</v>
+        <v>1918.104218864625</v>
       </c>
       <c r="S3" t="n">
-        <v>1765.304731877369</v>
+        <v>1772.279054448386</v>
       </c>
       <c r="T3" t="n">
-        <v>1576.619628043354</v>
+        <v>1583.593950614371</v>
       </c>
       <c r="U3" t="n">
-        <v>1576.619628043354</v>
+        <v>1365.099158212681</v>
       </c>
       <c r="V3" t="n">
-        <v>1576.619628043354</v>
+        <v>1365.099158212681</v>
       </c>
       <c r="W3" t="n">
-        <v>1468.728287511325</v>
+        <v>1123.783289445991</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.81129938912</v>
+        <v>1123.783289445991</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.289973038699</v>
+        <v>931.2619630955699</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.6296629276309</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="C4" t="n">
-        <v>192.6296629276309</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="D4" t="n">
-        <v>39.55776975539366</v>
+        <v>343.1334593734413</v>
       </c>
       <c r="E4" t="n">
-        <v>39.55776975539366</v>
+        <v>343.1334593734413</v>
       </c>
       <c r="F4" t="n">
-        <v>39.55776975539366</v>
+        <v>343.1334593734413</v>
       </c>
       <c r="G4" t="n">
-        <v>39.55776975539366</v>
+        <v>343.1334593734413</v>
       </c>
       <c r="H4" t="n">
-        <v>39.55776975539366</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="I4" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J4" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="K4" t="n">
-        <v>73.16195750003708</v>
+        <v>73.161957500037</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7690369002966</v>
+        <v>173.7690369002965</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7625430278983</v>
+        <v>291.7625430278982</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1848847774987</v>
+        <v>410.1848847774986</v>
       </c>
       <c r="O4" t="n">
         <v>508.6485312731883</v>
@@ -4507,31 +4507,31 @@
         <v>571.6170150013261</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="R4" t="n">
-        <v>571.6170150013261</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="S4" t="n">
-        <v>571.6170150013261</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="T4" t="n">
-        <v>571.6170150013261</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="U4" t="n">
-        <v>571.6170150013261</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="V4" t="n">
-        <v>571.6170150013261</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="W4" t="n">
-        <v>376.1850316120108</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="X4" t="n">
-        <v>376.1850316120108</v>
+        <v>496.2053525456786</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.1850316120108</v>
+        <v>496.2053525456786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>968.9984122738126</v>
+        <v>1045.470988568139</v>
       </c>
       <c r="C5" t="n">
-        <v>968.9984122738126</v>
+        <v>1045.470988568139</v>
       </c>
       <c r="D5" t="n">
-        <v>638.5897417418353</v>
+        <v>1045.470988568139</v>
       </c>
       <c r="E5" t="n">
-        <v>638.5897417418353</v>
+        <v>971.411016144526</v>
       </c>
       <c r="F5" t="n">
-        <v>628.4789550924097</v>
+        <v>557.2598254546963</v>
       </c>
       <c r="G5" t="n">
-        <v>212.3749685465976</v>
+        <v>545.1962429492883</v>
       </c>
       <c r="H5" t="n">
         <v>212.3749685465976</v>
       </c>
       <c r="I5" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J5" t="n">
         <v>111.5563140281993</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6966860729821</v>
+        <v>351.696686072982</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5820591579284</v>
+        <v>578.7242282134519</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.821225411016</v>
+        <v>971.9633944665397</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.152584098732</v>
+        <v>1350.294753154255</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.157168571566</v>
+        <v>1655.299337627089</v>
       </c>
       <c r="P5" t="n">
-        <v>1883.456234083146</v>
+        <v>1883.456234083143</v>
       </c>
       <c r="Q5" t="n">
-        <v>1977.888487769683</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R5" t="n">
-        <v>1887.250201265537</v>
+        <v>1887.250201265533</v>
       </c>
       <c r="S5" t="n">
-        <v>1700.02122589589</v>
+        <v>1887.250201265533</v>
       </c>
       <c r="T5" t="n">
-        <v>1700.02122589589</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="U5" t="n">
-        <v>1700.02122589589</v>
+        <v>1408.005918710538</v>
       </c>
       <c r="V5" t="n">
-        <v>1363.041951791832</v>
+        <v>1408.005918710538</v>
       </c>
       <c r="W5" t="n">
-        <v>1363.041951791832</v>
+        <v>1045.470988568139</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.041951791832</v>
+        <v>1045.470988568139</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.041951791832</v>
+        <v>1045.470988568139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.8705302574377</v>
+        <v>850.4882449474986</v>
       </c>
       <c r="C6" t="n">
-        <v>757.1668574983925</v>
+        <v>688.7845721884534</v>
       </c>
       <c r="D6" t="n">
-        <v>618.3282204886045</v>
+        <v>549.9459351786654</v>
       </c>
       <c r="E6" t="n">
-        <v>471.3002105454757</v>
+        <v>402.9179252355367</v>
       </c>
       <c r="F6" t="n">
-        <v>336.60641249535</v>
+        <v>268.224127185411</v>
       </c>
       <c r="G6" t="n">
-        <v>207.8779125186346</v>
+        <v>139.4956272086956</v>
       </c>
       <c r="H6" t="n">
-        <v>107.9400550653327</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="I6" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J6" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="K6" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="L6" t="n">
-        <v>309.0318634766121</v>
+        <v>405.3796149255093</v>
       </c>
       <c r="M6" t="n">
-        <v>794.0652169868385</v>
+        <v>890.4129684357357</v>
       </c>
       <c r="N6" t="n">
-        <v>1283.592617709835</v>
+        <v>1379.940369158731</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.792568493986</v>
+        <v>1675.792568493982</v>
       </c>
       <c r="P6" t="n">
-        <v>1977.888487769683</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="Q6" t="n">
-        <v>1977.888487769683</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R6" t="n">
-        <v>1977.888487769683</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="S6" t="n">
-        <v>1977.888487769683</v>
+        <v>1825.08900078242</v>
       </c>
       <c r="T6" t="n">
-        <v>1938.439778829681</v>
+        <v>1825.08900078242</v>
       </c>
       <c r="U6" t="n">
-        <v>1938.439778829681</v>
+        <v>1825.08900078242</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.044156278015</v>
+        <v>1596.693378230754</v>
       </c>
       <c r="W6" t="n">
-        <v>1468.728287511325</v>
+        <v>1400.346002201386</v>
       </c>
       <c r="X6" t="n">
-        <v>1270.81129938912</v>
+        <v>1202.429014079181</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.289973038699</v>
+        <v>1009.90768772876</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
       <c r="C7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
       <c r="D7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
       <c r="E7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
       <c r="F7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
       <c r="G7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
       <c r="H7" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="I7" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J7" t="n">
-        <v>39.55776975539366</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="K7" t="n">
-        <v>73.16195750003708</v>
+        <v>73.161957500037</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7690369002966</v>
+        <v>173.7690369002965</v>
       </c>
       <c r="M7" t="n">
-        <v>291.7625430278983</v>
+        <v>291.7625430278982</v>
       </c>
       <c r="N7" t="n">
-        <v>410.1848847774987</v>
+        <v>410.1848847774986</v>
       </c>
       <c r="O7" t="n">
         <v>508.6485312731883</v>
@@ -4744,31 +4744,31 @@
         <v>571.6170150013261</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="R7" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="S7" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="T7" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="U7" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="V7" t="n">
-        <v>571.6170150013261</v>
+        <v>533.0796736550151</v>
       </c>
       <c r="W7" t="n">
-        <v>492.8453926677408</v>
+        <v>420.9655737838427</v>
       </c>
       <c r="X7" t="n">
-        <v>261.5929285631166</v>
+        <v>420.9655737838427</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.55776975539366</v>
+        <v>198.9304149761198</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.62741011778</v>
+        <v>1483.312003366811</v>
       </c>
       <c r="C8" t="n">
-        <v>1313.62741011778</v>
+        <v>1195.846023593021</v>
       </c>
       <c r="D8" t="n">
-        <v>1313.62741011778</v>
+        <v>1195.846023593021</v>
       </c>
       <c r="E8" t="n">
-        <v>918.8416902238871</v>
+        <v>801.0603036991276</v>
       </c>
       <c r="F8" t="n">
-        <v>504.6904995340574</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4832,22 +4832,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.670949635799</v>
+        <v>1483.312003366811</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.5650081937138</v>
+        <v>882.7968532617863</v>
       </c>
       <c r="C9" t="n">
-        <v>488.8613354346685</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>350.0226984248806</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>202.9946884817518</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>68.30089043162613</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>68.30089043162613</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1888.629049167647</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1670.134256765957</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1441.738634214291</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W9" t="n">
-        <v>1200.422765447601</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="X9" t="n">
-        <v>1002.505777325396</v>
+        <v>1042.216296043047</v>
       </c>
       <c r="Y9" t="n">
-        <v>809.9844509749746</v>
+        <v>1042.216296043047</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>338.7079554727436</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V10" t="n">
-        <v>328.1806575838001</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>360.3737387508193</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1025.500271522552</v>
+        <v>1433.978382643748</v>
       </c>
       <c r="C11" t="n">
-        <v>1025.500271522552</v>
+        <v>1433.978382643748</v>
       </c>
       <c r="D11" t="n">
-        <v>1025.500271522552</v>
+        <v>1241.228776827081</v>
       </c>
       <c r="E11" t="n">
-        <v>1019.260255724392</v>
+        <v>938.3765741999957</v>
       </c>
       <c r="F11" t="n">
-        <v>697.04258230137</v>
+        <v>616.1589007769735</v>
       </c>
       <c r="G11" t="n">
-        <v>372.8721130223655</v>
+        <v>291.988431497969</v>
       </c>
       <c r="H11" t="n">
-        <v>131.9843558864823</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208574</v>
@@ -5042,13 +5042,13 @@
         <v>213.2032589080894</v>
       </c>
       <c r="K11" t="n">
-        <v>543.4476712260702</v>
+        <v>536.4025089730353</v>
       </c>
       <c r="L11" t="n">
-        <v>981.4370845842144</v>
+        <v>974.3919223311796</v>
       </c>
       <c r="M11" t="n">
-        <v>1457.735128857465</v>
+        <v>1367.631088584267</v>
       </c>
       <c r="N11" t="n">
         <v>1836.066487545181</v>
@@ -5069,22 +5069,22 @@
         <v>2459.738260001448</v>
       </c>
       <c r="T11" t="n">
-        <v>2327.312830999267</v>
+        <v>2459.738260001448</v>
       </c>
       <c r="U11" t="n">
-        <v>2164.361011980069</v>
+        <v>2296.78644098225</v>
       </c>
       <c r="V11" t="n">
-        <v>1919.315255142817</v>
+        <v>2296.78644098225</v>
       </c>
       <c r="W11" t="n">
-        <v>1919.315255142817</v>
+        <v>2026.185028106659</v>
       </c>
       <c r="X11" t="n">
-        <v>1629.218631931118</v>
+        <v>1736.08840489496</v>
       </c>
       <c r="Y11" t="n">
-        <v>1327.610293773763</v>
+        <v>1736.08840489496</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,16 +5142,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
         <v>1721.587060884707</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.783126633598</v>
+        <v>397.2004134970377</v>
       </c>
       <c r="C13" t="n">
-        <v>51.10067436208574</v>
+        <v>397.2004134970377</v>
       </c>
       <c r="D13" t="n">
-        <v>51.10067436208574</v>
+        <v>336.062037591608</v>
       </c>
       <c r="E13" t="n">
-        <v>51.10067436208574</v>
+        <v>308.3426985192763</v>
       </c>
       <c r="F13" t="n">
-        <v>51.10067436208574</v>
+        <v>247.7955608118609</v>
       </c>
       <c r="G13" t="n">
-        <v>51.10067436208574</v>
+        <v>170.8093294465184</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208574</v>
+        <v>103.3702014925997</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>82.34261509731444</v>
+        <v>82.34261509731446</v>
       </c>
       <c r="K13" t="n">
         <v>206.0508431151559</v>
       </c>
       <c r="L13" t="n">
-        <v>396.7619627886133</v>
+        <v>396.7619627886135</v>
       </c>
       <c r="M13" t="n">
-        <v>604.8595091894131</v>
+        <v>604.8595091894133</v>
       </c>
       <c r="N13" t="n">
-        <v>813.3858912122115</v>
+        <v>813.3858912122116</v>
       </c>
       <c r="O13" t="n">
         <v>1001.953577981099</v>
@@ -5218,31 +5218,31 @@
         <v>1155.026101982435</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.359694002113</v>
+        <v>1207.359694002114</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.359694002113</v>
+        <v>1207.359694002114</v>
       </c>
       <c r="S13" t="n">
-        <v>1085.583448672608</v>
+        <v>1085.583448672609</v>
       </c>
       <c r="T13" t="n">
-        <v>1048.106960064559</v>
+        <v>1085.583448672609</v>
       </c>
       <c r="U13" t="n">
-        <v>852.850237820466</v>
+        <v>890.3267264285163</v>
       </c>
       <c r="V13" t="n">
-        <v>684.048450645696</v>
+        <v>721.5249392537464</v>
       </c>
       <c r="W13" t="n">
-        <v>489.8255664299026</v>
+        <v>527.3020550379531</v>
       </c>
       <c r="X13" t="n">
-        <v>350.5066195920859</v>
+        <v>527.3020550379531</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.4049780511704</v>
+        <v>397.2004134970377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1343.77850198199</v>
+        <v>1094.932213691896</v>
       </c>
       <c r="C14" t="n">
-        <v>1059.267548708403</v>
+        <v>810.4212604183083</v>
       </c>
       <c r="D14" t="n">
-        <v>1059.267548708403</v>
+        <v>761.904634208117</v>
       </c>
       <c r="E14" t="n">
-        <v>761.9046342081151</v>
+        <v>761.904634208117</v>
       </c>
       <c r="F14" t="n">
-        <v>445.1762489118908</v>
+        <v>445.1762489118921</v>
       </c>
       <c r="G14" t="n">
-        <v>126.4950677596843</v>
+        <v>126.4950677596849</v>
       </c>
       <c r="H14" t="n">
-        <v>126.4950677596843</v>
+        <v>126.4950677596849</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>218.5833102011641</v>
+        <v>218.5833102011634</v>
       </c>
       <c r="K14" t="n">
-        <v>554.2077738122196</v>
+        <v>554.2077738122182</v>
       </c>
       <c r="L14" t="n">
-        <v>902.0931468971658</v>
+        <v>902.0931468971644</v>
       </c>
       <c r="M14" t="n">
-        <v>1295.332313150254</v>
+        <v>1390.816404716524</v>
       </c>
       <c r="N14" t="n">
-        <v>1673.663671837969</v>
+        <v>1769.14776340424</v>
       </c>
       <c r="O14" t="n">
-        <v>2034.826877865593</v>
+        <v>2074.152347877074</v>
       </c>
       <c r="P14" t="n">
-        <v>2358.467865887919</v>
+        <v>2397.7933358994</v>
       </c>
       <c r="Q14" t="n">
-        <v>2548.384211140728</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
@@ -5306,22 +5306,22 @@
         <v>2465.227548128246</v>
       </c>
       <c r="T14" t="n">
-        <v>2378.588152114262</v>
+        <v>2338.291407252862</v>
       </c>
       <c r="U14" t="n">
-        <v>2221.125621221861</v>
+        <v>2180.828876360461</v>
       </c>
       <c r="V14" t="n">
-        <v>2221.125621221861</v>
+        <v>1941.272407650007</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.125621221861</v>
+        <v>1676.160282901213</v>
       </c>
       <c r="X14" t="n">
-        <v>1936.51828613696</v>
+        <v>1391.552947816311</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.399236106404</v>
+        <v>1391.552947816311</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
         <v>119.4829596720247</v>
@@ -5361,7 +5361,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
         <v>1191.700572135723</v>
@@ -5385,22 +5385,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.3855460120845</v>
+        <v>250.4398695239782</v>
       </c>
       <c r="C16" t="n">
-        <v>286.3855460120845</v>
+        <v>178.2467053792634</v>
       </c>
       <c r="D16" t="n">
-        <v>286.3855460120845</v>
+        <v>122.5976176006309</v>
       </c>
       <c r="E16" t="n">
-        <v>286.3855460120845</v>
+        <v>122.5976176006309</v>
       </c>
       <c r="F16" t="n">
-        <v>231.3276964314671</v>
+        <v>122.5976176006309</v>
       </c>
       <c r="G16" t="n">
-        <v>159.8307531929225</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H16" t="n">
-        <v>97.88091336580177</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>87.72266639038912</v>
+        <v>87.7226663903885</v>
       </c>
       <c r="K16" t="n">
-        <v>216.8109457013052</v>
+        <v>216.810945701304</v>
       </c>
       <c r="L16" t="n">
-        <v>412.9021166678374</v>
+        <v>412.9021166678355</v>
       </c>
       <c r="M16" t="n">
-        <v>626.3797143617119</v>
+        <v>626.3797143617094</v>
       </c>
       <c r="N16" t="n">
-        <v>840.2861476775849</v>
+        <v>840.2861476775818</v>
       </c>
       <c r="O16" t="n">
-        <v>1034.233885739547</v>
+        <v>1034.233885739543</v>
       </c>
       <c r="P16" t="n">
-        <v>1192.686461033958</v>
+        <v>1192.686461033953</v>
       </c>
       <c r="Q16" t="n">
-        <v>1250.400104346711</v>
+        <v>1250.400104346706</v>
       </c>
       <c r="R16" t="n">
-        <v>1250.400104346711</v>
+        <v>1198.301128354689</v>
       </c>
       <c r="S16" t="n">
-        <v>1134.113147144004</v>
+        <v>1186.451558694096</v>
       </c>
       <c r="T16" t="n">
-        <v>998.3569993532883</v>
+        <v>1050.69541090338</v>
       </c>
       <c r="U16" t="n">
-        <v>808.5895652359936</v>
+        <v>860.9279767860844</v>
       </c>
       <c r="V16" t="n">
-        <v>645.2770661880216</v>
+        <v>697.6154777381118</v>
       </c>
       <c r="W16" t="n">
-        <v>456.5434700990262</v>
+        <v>508.8818816491158</v>
       </c>
       <c r="X16" t="n">
-        <v>372.5181093028589</v>
+        <v>375.0522229380963</v>
       </c>
       <c r="Y16" t="n">
-        <v>372.5181093028589</v>
+        <v>250.4398695239782</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J17" t="n">
         <v>287.5669931259238</v>
@@ -5528,10 +5528,10 @@
         <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
-        <v>2116.635622160323</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P17" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q17" t="n">
         <v>2479.400528215969</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C18" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D18" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E18" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F18" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G18" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H18" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S18" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X18" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y18" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L19" t="n">
         <v>185.3119415069887</v>
@@ -5692,7 +5692,7 @@
         <v>583.1599196080183</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R19" t="n">
         <v>629.3786802696717</v>
@@ -5704,19 +5704,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X19" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D20" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478544</v>
       </c>
       <c r="E20" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614935</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5747,7 +5747,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
         <v>123.0992186348914</v>
@@ -5756,19 +5756,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1309.007660421796</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1687.339019109512</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O20" t="n">
-        <v>2156.811378073378</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P20" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q20" t="n">
         <v>2479.400528215969</v>
@@ -5792,10 +5792,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5826,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
         <v>706.6672186254962</v>
@@ -5853,16 +5853,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
         <v>1721.587060884707</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54268635500836</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>81.02642599070933</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F22" t="n">
-        <v>81.02642599070933</v>
+        <v>74.18506434652159</v>
       </c>
       <c r="G22" t="n">
-        <v>79.9138138660916</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="H22" t="n">
-        <v>79.9138138660916</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I22" t="n">
-        <v>79.9138138660916</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J22" t="n">
-        <v>79.9138138660916</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K22" t="n">
-        <v>113.518001610735</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L22" t="n">
-        <v>214.1250810109945</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M22" t="n">
-        <v>332.1185871385962</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>450.5409288881966</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>549.0045753838863</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>611.9730591120241</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
-        <v>611.9730591120241</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
         <v>628.266068145054</v>
@@ -5941,19 +5941,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C23" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E23" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791954</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K23" t="n">
-        <v>692.175139661739</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N23" t="n">
-        <v>1851.806793600545</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073379</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6017,7 +6017,7 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U23" t="n">
         <v>2391.981869702243</v>
@@ -6029,7 +6029,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
         <v>1588.124215583246</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H24" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E25" t="n">
-        <v>79.39795846875474</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F25" t="n">
-        <v>79.39795846875474</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I25" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J25" t="n">
-        <v>78.28534634413701</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K25" t="n">
-        <v>111.8895340887804</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L25" t="n">
-        <v>212.4966134890399</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M25" t="n">
-        <v>330.4901196166417</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N25" t="n">
-        <v>448.912461366242</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O25" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P25" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q25" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S25" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T25" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U25" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V25" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X25" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.378469185809</v>
+        <v>1637.378469185811</v>
       </c>
       <c r="C26" t="n">
-        <v>1385.545025310955</v>
+        <v>1385.545025310956</v>
       </c>
       <c r="D26" t="n">
-        <v>1142.821375330516</v>
+        <v>1142.821375330518</v>
       </c>
       <c r="E26" t="n">
-        <v>878.1359702289614</v>
+        <v>878.1359702289623</v>
       </c>
       <c r="F26" t="n">
-        <v>594.0850943314698</v>
+        <v>594.0850943314705</v>
       </c>
       <c r="G26" t="n">
-        <v>308.0814225779959</v>
+        <v>308.0814225779964</v>
       </c>
       <c r="H26" t="n">
-        <v>105.3604629676437</v>
+        <v>105.360462967644</v>
       </c>
       <c r="I26" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="J26" t="n">
-        <v>262.1534417695541</v>
+        <v>262.1534417695539</v>
       </c>
       <c r="K26" t="n">
-        <v>629.8051323423074</v>
+        <v>581.3846707046421</v>
       </c>
       <c r="L26" t="n">
-        <v>1105.201823955224</v>
+        <v>1056.781362317559</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.952308736283</v>
+        <v>1577.531847098617</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.794985951969</v>
+        <v>2083.374524314303</v>
       </c>
       <c r="O26" t="n">
-        <v>2564.310888952773</v>
+        <v>2515.890427315107</v>
       </c>
       <c r="P26" t="n">
-        <v>2871.558642299126</v>
+        <v>2871.558642299131</v>
       </c>
       <c r="Q26" t="n">
-        <v>3093.502214513634</v>
+        <v>3093.502214513638</v>
       </c>
       <c r="R26" t="n">
-        <v>3132.178948438891</v>
+        <v>3132.178948438894</v>
       </c>
       <c r="S26" t="n">
-        <v>3075.050287861583</v>
+        <v>3075.050287861586</v>
       </c>
       <c r="T26" t="n">
-        <v>2980.791656384932</v>
+        <v>2980.791656384935</v>
       </c>
       <c r="U26" t="n">
-        <v>2856.006634891264</v>
+        <v>2856.006634891267</v>
       </c>
       <c r="V26" t="n">
-        <v>2649.127675579544</v>
+        <v>2649.127675579546</v>
       </c>
       <c r="W26" t="n">
-        <v>2416.693060229483</v>
+        <v>2416.693060229486</v>
       </c>
       <c r="X26" t="n">
-        <v>2164.763234543314</v>
+        <v>2164.763234543316</v>
       </c>
       <c r="Y26" t="n">
-        <v>1901.32169391149</v>
+        <v>1901.321693911492</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>927.2437220107174</v>
+        <v>941.9563394708219</v>
       </c>
       <c r="C27" t="n">
-        <v>765.5400492516721</v>
+        <v>780.2526667117767</v>
       </c>
       <c r="D27" t="n">
-        <v>626.7014122418842</v>
+        <v>641.4140297019887</v>
       </c>
       <c r="E27" t="n">
-        <v>479.6734022987554</v>
+        <v>494.3860197588599</v>
       </c>
       <c r="F27" t="n">
-        <v>344.9796042486298</v>
+        <v>359.6922217087342</v>
       </c>
       <c r="G27" t="n">
         <v>230.9637217320188</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0258642787168</v>
+        <v>131.0258642787169</v>
       </c>
       <c r="I27" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="J27" t="n">
         <v>122.897725501884</v>
       </c>
       <c r="K27" t="n">
-        <v>352.3882780620726</v>
+        <v>352.3882780620727</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2101232321883</v>
+        <v>718.2101232321884</v>
       </c>
       <c r="M27" t="n">
         <v>1203.243476742415</v>
@@ -6348,7 +6348,7 @@
         <v>1279.184491142399</v>
       </c>
       <c r="Y27" t="n">
-        <v>1086.663164791978</v>
+        <v>1101.375782252083</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>251.6143455960695</v>
+        <v>251.6143455960711</v>
       </c>
       <c r="C28" t="n">
-        <v>212.0986908500879</v>
+        <v>212.0986908500893</v>
       </c>
       <c r="D28" t="n">
-        <v>189.1271124701888</v>
+        <v>189.12711247019</v>
       </c>
       <c r="E28" t="n">
-        <v>167.2184130238458</v>
+        <v>167.2184130238468</v>
       </c>
       <c r="F28" t="n">
-        <v>144.838072841961</v>
+        <v>144.8380728419618</v>
       </c>
       <c r="G28" t="n">
-        <v>106.0186390021492</v>
+        <v>106.0186390021497</v>
       </c>
       <c r="H28" t="n">
-        <v>76.74630857376114</v>
+        <v>76.74630857376145</v>
       </c>
       <c r="I28" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="J28" t="n">
-        <v>62.64357896877781</v>
+        <v>131.292797958779</v>
       </c>
       <c r="K28" t="n">
-        <v>223.7590852413918</v>
+        <v>292.4083042313928</v>
       </c>
       <c r="L28" t="n">
-        <v>451.8774831696219</v>
+        <v>393.0153836316523</v>
       </c>
       <c r="M28" t="n">
-        <v>697.3823078251943</v>
+        <v>638.5202082872245</v>
       </c>
       <c r="N28" t="n">
-        <v>943.3159681027653</v>
+        <v>859.1034979112928</v>
       </c>
       <c r="O28" t="n">
-        <v>1085.078462934949</v>
+        <v>957.5671444069825</v>
       </c>
       <c r="P28" t="n">
-        <v>1148.046946663087</v>
+        <v>1148.046946663091</v>
       </c>
       <c r="Q28" t="n">
-        <v>1148.046946663087</v>
+        <v>1148.046946663091</v>
       </c>
       <c r="R28" t="n">
-        <v>1128.625480069803</v>
+        <v>1128.625480069807</v>
       </c>
       <c r="S28" t="n">
-        <v>1045.016032265829</v>
+        <v>1045.016032265832</v>
       </c>
       <c r="T28" t="n">
-        <v>941.9373938738461</v>
+        <v>941.9373938738491</v>
       </c>
       <c r="U28" t="n">
-        <v>784.8474691552841</v>
+        <v>784.8474691552869</v>
       </c>
       <c r="V28" t="n">
-        <v>654.2124795060448</v>
+        <v>654.2124795060474</v>
       </c>
       <c r="W28" t="n">
-        <v>498.1563928157821</v>
+        <v>498.1563928157844</v>
       </c>
       <c r="X28" t="n">
-        <v>397.004243503496</v>
+        <v>397.0042435034981</v>
       </c>
       <c r="Y28" t="n">
-        <v>305.0693994881112</v>
+        <v>305.069399488113</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1675.803486073395</v>
+        <v>1675.803486073392</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.480754071742</v>
+        <v>1418.48075407174</v>
       </c>
       <c r="D29" t="n">
-        <v>1170.267815964506</v>
+        <v>1170.267815964504</v>
       </c>
       <c r="E29" t="n">
-        <v>900.0931227361532</v>
+        <v>900.0931227361517</v>
       </c>
       <c r="F29" t="n">
-        <v>610.5529587118638</v>
+        <v>610.5529587118627</v>
       </c>
       <c r="G29" t="n">
-        <v>319.059998831592</v>
+        <v>319.0599988315913</v>
       </c>
       <c r="H29" t="n">
-        <v>110.8497510944416</v>
+        <v>110.8497510944412</v>
       </c>
       <c r="I29" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="J29" t="n">
-        <v>256.77339047648</v>
+        <v>256.7733904764805</v>
       </c>
       <c r="K29" t="n">
-        <v>619.0450297561588</v>
+        <v>619.0450297561596</v>
       </c>
       <c r="L29" t="n">
-        <v>1089.061670076001</v>
+        <v>1089.061670076002</v>
       </c>
       <c r="M29" t="n">
-        <v>1604.432103563985</v>
+        <v>1604.432103563987</v>
       </c>
       <c r="N29" t="n">
-        <v>2104.894729486597</v>
+        <v>2104.894729486599</v>
       </c>
       <c r="O29" t="n">
-        <v>2532.030581194327</v>
+        <v>2532.030581194329</v>
       </c>
       <c r="P29" t="n">
-        <v>2882.318744885276</v>
+        <v>2882.318744885279</v>
       </c>
       <c r="Q29" t="n">
-        <v>3098.882265806709</v>
+        <v>3098.882265806712</v>
       </c>
       <c r="R29" t="n">
-        <v>3132.178948438891</v>
+        <v>3132.178948438894</v>
       </c>
       <c r="S29" t="n">
-        <v>3069.560999734785</v>
+        <v>3069.560999734789</v>
       </c>
       <c r="T29" t="n">
-        <v>2969.813080131336</v>
+        <v>2969.81308013134</v>
       </c>
       <c r="U29" t="n">
-        <v>2839.538770510871</v>
+        <v>2921.878092412835</v>
       </c>
       <c r="V29" t="n">
-        <v>2627.170523072352</v>
+        <v>2709.509844974317</v>
       </c>
       <c r="W29" t="n">
-        <v>2389.246619595493</v>
+        <v>2471.585941497458</v>
       </c>
       <c r="X29" t="n">
-        <v>2131.827505782527</v>
+        <v>2214.166827684492</v>
       </c>
       <c r="Y29" t="n">
-        <v>1862.896677023905</v>
+        <v>1945.235998925871</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>230.9637217320188</v>
       </c>
       <c r="H30" t="n">
-        <v>131.0258642787168</v>
+        <v>131.0258642787169</v>
       </c>
       <c r="I30" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="J30" t="n">
         <v>122.897725501884</v>
       </c>
       <c r="K30" t="n">
-        <v>352.3882780620726</v>
+        <v>352.3882780620727</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2101232321883</v>
+        <v>718.2101232321884</v>
       </c>
       <c r="M30" t="n">
         <v>1203.243476742415</v>
@@ -6576,10 +6576,10 @@
         <v>1946.812970582961</v>
       </c>
       <c r="V30" t="n">
-        <v>1733.129965491399</v>
+        <v>1718.417348031295</v>
       </c>
       <c r="W30" t="n">
-        <v>1491.814096724709</v>
+        <v>1477.101479264605</v>
       </c>
       <c r="X30" t="n">
         <v>1293.897108602504</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.0393624836547</v>
+        <v>290.039362483652</v>
       </c>
       <c r="C31" t="n">
-        <v>245.0344196108752</v>
+        <v>245.034419610873</v>
       </c>
       <c r="D31" t="n">
-        <v>216.5735531041782</v>
+        <v>216.5735531041764</v>
       </c>
       <c r="E31" t="n">
-        <v>189.1755655310373</v>
+        <v>189.1755655310359</v>
       </c>
       <c r="F31" t="n">
-        <v>161.3059372223547</v>
+        <v>161.3059372223536</v>
       </c>
       <c r="G31" t="n">
-        <v>116.9972152557449</v>
+        <v>116.9972152557443</v>
       </c>
       <c r="H31" t="n">
-        <v>82.23559670055903</v>
+        <v>82.23559670055872</v>
       </c>
       <c r="I31" t="n">
-        <v>62.64357896877781</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="J31" t="n">
-        <v>125.9127466657045</v>
+        <v>62.64357896877789</v>
       </c>
       <c r="K31" t="n">
-        <v>159.5169344103479</v>
+        <v>218.3790339483177</v>
       </c>
       <c r="L31" t="n">
-        <v>382.2552810455034</v>
+        <v>441.1173805834736</v>
       </c>
       <c r="M31" t="n">
-        <v>505.2664640323605</v>
+        <v>627.3977312672497</v>
       </c>
       <c r="N31" t="n">
-        <v>745.8200730168569</v>
+        <v>745.8200730168501</v>
       </c>
       <c r="O31" t="n">
-        <v>966.4149867474425</v>
+        <v>966.414986747436</v>
       </c>
       <c r="P31" t="n">
-        <v>1151.514737710476</v>
+        <v>1151.51473771047</v>
       </c>
       <c r="Q31" t="n">
-        <v>1235.875556691853</v>
+        <v>1235.875556691847</v>
       </c>
       <c r="R31" t="n">
-        <v>1210.964801971772</v>
+        <v>1210.964801971766</v>
       </c>
       <c r="S31" t="n">
-        <v>1121.866066040999</v>
+        <v>1121.866066040994</v>
       </c>
       <c r="T31" t="n">
-        <v>1013.298139522219</v>
+        <v>1013.298139522214</v>
       </c>
       <c r="U31" t="n">
-        <v>850.7189266768587</v>
+        <v>850.7189266768542</v>
       </c>
       <c r="V31" t="n">
-        <v>714.5946489008215</v>
+        <v>714.5946489008173</v>
       </c>
       <c r="W31" t="n">
-        <v>553.0492740837609</v>
+        <v>553.049274083757</v>
       </c>
       <c r="X31" t="n">
-        <v>446.4078366446769</v>
+        <v>446.4078366446735</v>
       </c>
       <c r="Y31" t="n">
-        <v>348.9837045024943</v>
+        <v>348.9837045024912</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>507.7241781424431</v>
+        <v>643.1323473443256</v>
       </c>
       <c r="L32" t="n">
-        <v>886.0759409838042</v>
+        <v>1126.425889631154</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.723276438775</v>
+        <v>1655.073225086124</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328373</v>
+        <v>2063.870973530255</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2504.283727204971</v>
       </c>
       <c r="P32" t="n">
         <v>2732.440623661025</v>
@@ -6801,19 +6801,19 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.238997932964</v>
+        <v>2351.52638047286</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.55389409895</v>
+        <v>2162.841276638845</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.05910169726</v>
+        <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
         <v>1489.347610378904</v>
@@ -6856,25 +6856,25 @@
         <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>93.78128036761566</v>
       </c>
       <c r="L34" t="n">
-        <v>270.9344294317883</v>
+        <v>329.7965289697576</v>
       </c>
       <c r="M34" t="n">
-        <v>388.9279355593901</v>
+        <v>583.1982042992418</v>
       </c>
       <c r="N34" t="n">
-        <v>642.7584465108729</v>
+        <v>719.8251412174678</v>
       </c>
       <c r="O34" t="n">
-        <v>741.2220930065625</v>
+        <v>818.2887877131575</v>
       </c>
       <c r="P34" t="n">
-        <v>919.0277196948147</v>
+        <v>1016.665440643178</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6935,22 +6935,22 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837623</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687086</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
         <v>2384.968274529432</v>
@@ -7038,16 +7038,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
         <v>1721.587060884707</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G37" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D37" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="E37" t="n">
-        <v>81.02642599070934</v>
-      </c>
-      <c r="F37" t="n">
-        <v>96.04791054150587</v>
-      </c>
-      <c r="G37" t="n">
-        <v>94.93529841688814</v>
-      </c>
       <c r="H37" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927301</v>
+        <v>643.5163109720806</v>
       </c>
       <c r="L38" t="n">
-        <v>915.7684941687087</v>
+        <v>991.4016840570268</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.007660421797</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N38" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7242,19 +7242,19 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>81.02642599070934</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>96.04791054150587</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S40" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T40" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V40" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670034</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M41" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N41" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O41" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5844139977867</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>79.39795846875474</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G43" t="n">
-        <v>78.28534634413701</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H43" t="n">
-        <v>78.28534634413701</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="I43" t="n">
-        <v>78.28534634413701</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="J43" t="n">
-        <v>78.28534634413701</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="K43" t="n">
-        <v>111.8895340887804</v>
+        <v>98.61373453290796</v>
       </c>
       <c r="L43" t="n">
-        <v>212.4966134890399</v>
+        <v>199.2208139331674</v>
       </c>
       <c r="M43" t="n">
-        <v>330.4901196166417</v>
+        <v>317.2143200607692</v>
       </c>
       <c r="N43" t="n">
-        <v>448.912461366242</v>
+        <v>435.6366618103696</v>
       </c>
       <c r="O43" t="n">
-        <v>547.3761078619317</v>
+        <v>534.1003083060592</v>
       </c>
       <c r="P43" t="n">
-        <v>610.3445915900695</v>
+        <v>597.068792034197</v>
       </c>
       <c r="Q43" t="n">
-        <v>610.3445915900695</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
         <v>628.266068145054</v>
@@ -7600,19 +7600,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>692.175139661739</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M44" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7749,10 +7749,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
         <v>2168.477475838063</v>
@@ -7786,46 +7786,46 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E46" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F46" t="n">
-        <v>56.26358779153714</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="G46" t="n">
-        <v>55.15097566691941</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="H46" t="n">
-        <v>55.15097566691941</v>
+        <v>72.69671914058929</v>
       </c>
       <c r="I46" t="n">
-        <v>78.28534634413701</v>
+        <v>72.69671914058929</v>
       </c>
       <c r="J46" t="n">
-        <v>78.28534634413701</v>
+        <v>72.69671914058929</v>
       </c>
       <c r="K46" t="n">
-        <v>111.8895340887804</v>
+        <v>106.3009068852327</v>
       </c>
       <c r="L46" t="n">
-        <v>212.4966134890399</v>
+        <v>206.9079862854922</v>
       </c>
       <c r="M46" t="n">
-        <v>330.4901196166417</v>
+        <v>324.9014924130939</v>
       </c>
       <c r="N46" t="n">
-        <v>448.912461366242</v>
+        <v>443.3238341626943</v>
       </c>
       <c r="O46" t="n">
-        <v>547.3761078619317</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P46" t="n">
-        <v>610.3445915900695</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q46" t="n">
-        <v>610.3445915900695</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R46" t="n">
         <v>628.266068145054</v>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>372.9616185259362</v>
       </c>
       <c r="P2" t="n">
-        <v>391.6458183421843</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>225.4062052232934</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>601.1872630101291</v>
+        <v>601.1872630101282</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>353.8372797243887</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8219,7 +8219,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>420.8809617999528</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8231,7 +8231,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>296.2597035072984</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8298,16 +8298,16 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>384.7714878350048</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>601.1872630101291</v>
+        <v>601.1872630101282</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>414.7000540002535</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8541,16 +8541,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>466.5796364545544</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163523</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466198</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -23261,10 +23261,10 @@
         <v>287.1002389863813</v>
       </c>
       <c r="D11" t="n">
-        <v>278.0815430309092</v>
+        <v>87.25943327240917</v>
       </c>
       <c r="E11" t="n">
-        <v>293.646064960637</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>80.07484470915252</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.1011747121595</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>242.5952992688786</v>
       </c>
       <c r="W11" t="n">
-        <v>267.8953987468356</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>298.5922547757809</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>90.70563290339659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.90562774879707</v>
       </c>
       <c r="D13" t="n">
-        <v>60.52699214637549</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>59.47474200215494</v>
+        <v>32.03259632054647</v>
       </c>
       <c r="F13" t="n">
-        <v>59.94166633034125</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>76.21636905168909</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.76473667437951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>51.74683185920885</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.01238147762616</v>
+        <v>57.01238147762614</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>102.7312578363693</v>
+        <v>139.8329815583385</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.9257573694385</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>272.6471477853793</v>
+        <v>224.6156878372906</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>294.3892853552854</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>233.0444843189944</v>
+        <v>233.044484318995</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.89377741278486</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>237.1609040233487</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>262.4610035013056</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>293.1578595302516</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>85.27123765786727</v>
       </c>
       <c r="C16" t="n">
-        <v>71.47123250326712</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.09259690084551</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.04034675662496</v>
+        <v>54.0403467566256</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54.5072710848119</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>61.33034142885016</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.31243661367951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.57798623209618</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>103.3930136666934</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>49.30625493570285</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.3662298799763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.51592868295013</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>81.51592868293891</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.924355041892013e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814760.8900798337</v>
+        <v>814760.8900798339</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>826518.5819926952</v>
+        <v>826518.5819926939</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>932390.8558994982</v>
+        <v>932390.8558994994</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940339.4741053726</v>
+        <v>940339.4741053728</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>403002.6317594454</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="C2" t="n">
         <v>403002.6317594454</v>
       </c>
       <c r="D2" t="n">
+        <v>403002.6317594454</v>
+      </c>
+      <c r="E2" t="n">
+        <v>349183.2386056426</v>
+      </c>
+      <c r="F2" t="n">
+        <v>354222.2494254403</v>
+      </c>
+      <c r="G2" t="n">
         <v>403002.6317594455</v>
-      </c>
-      <c r="E2" t="n">
-        <v>349183.2386056425</v>
-      </c>
-      <c r="F2" t="n">
-        <v>354222.2494254402</v>
-      </c>
-      <c r="G2" t="n">
-        <v>403002.6317594456</v>
       </c>
       <c r="H2" t="n">
         <v>403002.6317594455</v>
       </c>
       <c r="I2" t="n">
-        <v>403002.6317594456</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="J2" t="n">
         <v>403002.6317594459</v>
       </c>
       <c r="K2" t="n">
-        <v>399596.0810997851</v>
+        <v>399596.0810997856</v>
       </c>
       <c r="L2" t="n">
         <v>403002.6317594456</v>
       </c>
       <c r="M2" t="n">
-        <v>403002.6317594456</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="N2" t="n">
-        <v>403002.6317594456</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="O2" t="n">
         <v>403002.6317594455</v>
       </c>
       <c r="P2" t="n">
-        <v>403002.6317594455</v>
+        <v>403002.6317594456</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165708.9809217099</v>
+        <v>165708.9809217096</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9577.058169969767</v>
+        <v>9577.058169970049</v>
       </c>
       <c r="E3" t="n">
         <v>106686.5808190487</v>
       </c>
       <c r="F3" t="n">
-        <v>4347.516196423976</v>
+        <v>4347.516196423453</v>
       </c>
       <c r="G3" t="n">
-        <v>55744.39024223005</v>
+        <v>55744.39024223055</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210074.8534117973</v>
+        <v>210074.8534117971</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66473.19991252213</v>
+        <v>66473.19991252234</v>
       </c>
       <c r="M3" t="n">
         <v>23482.50932456558</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42947.54287687778</v>
+        <v>42947.54287687762</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194085.0251368514</v>
+        <v>194085.0251368516</v>
       </c>
       <c r="C4" t="n">
-        <v>194085.0251368514</v>
+        <v>194085.0251368516</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
@@ -26427,7 +26427,7 @@
         <v>117292.1668740728</v>
       </c>
       <c r="F4" t="n">
-        <v>122783.8717506414</v>
+        <v>122783.8717506407</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26439,10 +26439,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176365.9509897421</v>
+        <v>176365.9509897422</v>
       </c>
       <c r="K4" t="n">
-        <v>172689.8105149079</v>
+        <v>172689.8105149083</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63691.50501409918</v>
+        <v>63691.50501409912</v>
       </c>
       <c r="C5" t="n">
-        <v>63691.50501409918</v>
+        <v>63691.50501409912</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26479,7 +26479,7 @@
         <v>46487.98378965737</v>
       </c>
       <c r="F5" t="n">
-        <v>46944.84796355382</v>
+        <v>46944.84796355377</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26488,13 +26488,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58437.14934690544</v>
+        <v>58437.14934690548</v>
       </c>
       <c r="K5" t="n">
-        <v>57980.28517300898</v>
+        <v>57980.28517300908</v>
       </c>
       <c r="L5" t="n">
         <v>57233.20592541149</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20482.87931321506</v>
+        <v>-20482.87931321489</v>
       </c>
       <c r="C6" t="n">
-        <v>145226.1016084948</v>
+        <v>145226.1016084946</v>
       </c>
       <c r="D6" t="n">
-        <v>142083.7796192712</v>
+        <v>142083.7796192708</v>
       </c>
       <c r="E6" t="n">
-        <v>78716.50712286364</v>
+        <v>78460.22429832171</v>
       </c>
       <c r="F6" t="n">
-        <v>180146.0135148211</v>
+        <v>179913.7259798985</v>
       </c>
       <c r="G6" t="n">
-        <v>118832.3040843335</v>
+        <v>118832.3040843329</v>
       </c>
       <c r="H6" t="n">
         <v>174576.6943265635</v>
       </c>
       <c r="I6" t="n">
+        <v>174576.6943265634</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-41875.32198899886</v>
+      </c>
+      <c r="K6" t="n">
+        <v>168909.7637420603</v>
+      </c>
+      <c r="L6" t="n">
+        <v>103095.4093901111</v>
+      </c>
+      <c r="M6" t="n">
+        <v>151094.1850019979</v>
+      </c>
+      <c r="N6" t="n">
+        <v>174576.6943265634</v>
+      </c>
+      <c r="O6" t="n">
+        <v>131629.1514496858</v>
+      </c>
+      <c r="P6" t="n">
         <v>174576.6943265636</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-41875.32198899894</v>
-      </c>
-      <c r="K6" t="n">
-        <v>168925.9854118683</v>
-      </c>
-      <c r="L6" t="n">
-        <v>103095.4093901112</v>
-      </c>
-      <c r="M6" t="n">
-        <v>151094.185001998</v>
-      </c>
-      <c r="N6" t="n">
-        <v>174576.6943265636</v>
-      </c>
-      <c r="O6" t="n">
-        <v>131629.1514496857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>174576.6943265635</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="F2" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="K2" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.4721219424208</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="C4" t="n">
-        <v>494.4721219424208</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26802,19 +26802,19 @@
         <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="H4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="H4" t="n">
-        <v>638.7584295260716</v>
-      </c>
       <c r="I4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="J4" t="n">
-        <v>783.0447371097226</v>
+        <v>783.0447371097235</v>
       </c>
       <c r="K4" t="n">
-        <v>783.0447371097226</v>
+        <v>783.0447371097235</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871531</v>
@@ -26823,10 +26823,10 @@
         <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="F2" t="n">
-        <v>5.43439524552997</v>
+        <v>5.434395245529316</v>
       </c>
       <c r="G2" t="n">
-        <v>69.68048780278755</v>
+        <v>69.68048780278819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.68442859609722</v>
+        <v>53.68442859609702</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.09149989065267</v>
+        <v>83.09149989065293</v>
       </c>
       <c r="M2" t="n">
         <v>29.35313665570698</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609722</v>
+        <v>53.68442859609702</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.4721219424208</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.83107932256951</v>
+        <v>30.83107932257042</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="K2" t="n">
-        <v>5.43439524552997</v>
+        <v>5.434395245529316</v>
       </c>
       <c r="L2" t="n">
-        <v>69.68048780278755</v>
+        <v>69.68048780278819</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609722</v>
+        <v>53.68442859609702</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>494.4721219424208</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.83107932256951</v>
+        <v>30.83107932257042</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.9810314984339</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>291.6291118474058</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27445,7 +27445,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.904579345309628</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>132.0902829523141</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27552,10 +27552,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>111.5209856735224</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>89.81717391235273</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>41.99114129839109</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>317.518489995577</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.7440309450727</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.51880780994898</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27834,10 +27834,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>205.3109313575255</v>
+        <v>172.3018785953142</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>93.52310110446888</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>124.9923924851162</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.15476170804251</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>72.9246108916463</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28017,10 +28017,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>129.0397986509994</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28059,7 +28059,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>14.68413607146334</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="C11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="D11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="E11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="F11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="G11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="H11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="I11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="J11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="K11" t="n">
-        <v>91.0141820941394</v>
+        <v>83.89785658602338</v>
       </c>
       <c r="L11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="M11" t="n">
-        <v>83.89785658602341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="S11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="T11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="U11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="V11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="W11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="X11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
     </row>
     <row r="12">
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28226,7 +28226,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="C13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="D13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="E13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="F13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="G13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="H13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="I13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="J13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="K13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="L13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="M13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="N13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="O13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="P13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="R13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="S13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="T13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="U13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="V13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="W13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="X13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.0141820941394</v>
+        <v>91.01418209413943</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="C14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="D14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="E14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="F14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="G14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="H14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="I14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="J14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="K14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>56.72588035837333</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.44857733966938</v>
+        <v>63.44255405893969</v>
       </c>
       <c r="R14" t="n">
-        <v>96.44857733966938</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="T14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="U14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="V14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="W14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="X14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="C16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="D16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="E16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="F16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="G16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="H16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="I16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="J16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="K16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="L16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="M16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="N16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="O16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="P16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="R16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="T16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="U16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="V16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="W16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="X16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.44857733966938</v>
+        <v>96.44857733966874</v>
       </c>
     </row>
     <row r="17">
@@ -28600,13 +28600,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>40.58157162934918</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R17" t="n">
         <v>166.1290651424569</v>
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.83758476280077</v>
+        <v>66.73508319210941</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28828,22 +28828,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M20" t="n">
-        <v>40.58157162934913</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>40.58157162934964</v>
+      </c>
+      <c r="Q20" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>166.1290651424569</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28962,13 +28962,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>158.6332730191623</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28977,7 +28977,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>164.4841484536139</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,31 +29059,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>40.58157162934975</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>164.4841484536139</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="C26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="D26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="E26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="F26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="G26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="H26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="I26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="J26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="K26" t="n">
-        <v>128.7993116444148</v>
+        <v>79.88975443465191</v>
       </c>
       <c r="L26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="M26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="N26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="O26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="P26" t="n">
-        <v>79.88975443464619</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="R26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="S26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="T26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="U26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="V26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="W26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="X26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
     </row>
     <row r="27">
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="C28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="D28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="E28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="F28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="G28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="H28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="I28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="K28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="L28" t="n">
-        <v>128.7993116444148</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7993116444148</v>
+        <v>103.1928766408767</v>
       </c>
       <c r="O28" t="n">
-        <v>43.73621044090342</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Q28" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="S28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="T28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="V28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="W28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.7993116444148</v>
+        <v>128.7993116444145</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="C29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="D29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="E29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="F29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="G29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="H29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="I29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="J29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="K29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="L29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="M29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="N29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="O29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="P29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="R29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="S29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="T29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="U29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="V29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="W29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="X29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="Y29" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
     </row>
     <row r="30">
@@ -29648,13 +29648,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="C31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="D31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="E31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="F31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="G31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="H31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="I31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="J31" t="n">
-        <v>123.3649163988848</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="L31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="M31" t="n">
-        <v>5.068360463894351</v>
+        <v>68.97661066280244</v>
       </c>
       <c r="N31" t="n">
-        <v>123.3649163988848</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="P31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="R31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="S31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="T31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="U31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="V31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="W31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="X31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.3649163988848</v>
+        <v>123.3649163988852</v>
       </c>
     </row>
     <row r="32">
@@ -29773,22 +29773,22 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
-        <v>30.77413106708582</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708565</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>14.5654912855035</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
+        <v>18.3884799683088</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>115.9971141011256</v>
-      </c>
       <c r="Q34" t="n">
-        <v>136.7759284867499</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>40.58157162934921</v>
-      </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30147,13 +30147,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30162,7 +30162,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>144.0453821172203</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,13 +30244,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
-        <v>40.58157162934944</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="L38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30384,13 +30384,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>60.74103436384102</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30481,13 +30481,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
-        <v>40.5815716293493</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,16 +30496,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30624,10 +30624,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
+        <v>150.4889240962943</v>
+      </c>
+      <c r="F43" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="F43" t="n">
-        <v>163.8988226375797</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>69.66436804482456</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,31 +30718,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>40.5815716293491</v>
-      </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30858,22 +30858,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>156.1709124946336</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>23.74757955407289</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -31859,7 +31859,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -34457,7 +34457,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>186.0068217458157</v>
       </c>
       <c r="P2" t="n">
-        <v>203.7690092910278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>112.8307716521456</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>494.4721219424208</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>237.9778311132776</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>229.3207496368382</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -34951,7 +34951,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>108.3828944561419</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>272.196054263857</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>494.4721219424208</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>298.8406053891425</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35261,16 +35261,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>359.864495386846</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>163.7399843899027</v>
       </c>
       <c r="K11" t="n">
-        <v>333.5802144626068</v>
+        <v>326.4638889544908</v>
       </c>
       <c r="L11" t="n">
         <v>442.4135488466104</v>
       </c>
       <c r="M11" t="n">
-        <v>481.1091356295466</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>473.1670696574886</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
@@ -35431,7 +35431,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>1.282278455034216</v>
+        <v>1.282278455034245</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.5575158941704</v>
+        <v>31.55751589417043</v>
       </c>
       <c r="K13" t="n">
         <v>124.9578060786277</v>
       </c>
       <c r="L13" t="n">
-        <v>192.637494619654</v>
+        <v>192.6374946196541</v>
       </c>
       <c r="M13" t="n">
         <v>210.1995418189896</v>
@@ -35586,7 +35586,7 @@
         <v>154.6187111124604</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.86221416129155</v>
+        <v>52.86221416129158</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.1743796354327</v>
+        <v>169.174379635432</v>
       </c>
       <c r="K14" t="n">
-        <v>339.0146097081368</v>
+        <v>339.0146097081362</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>493.6598563831919</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>364.8113192198218</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>326.9100889114403</v>
+        <v>326.9100889114397</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.8346921745552</v>
+        <v>158.8286688938256</v>
       </c>
       <c r="R14" t="n">
-        <v>6.716673700564201</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>36.99191113970038</v>
+        <v>36.99191113969975</v>
       </c>
       <c r="K16" t="n">
-        <v>130.3922013241577</v>
+        <v>130.392201324157</v>
       </c>
       <c r="L16" t="n">
-        <v>198.071889865184</v>
+        <v>198.0718898651834</v>
       </c>
       <c r="M16" t="n">
-        <v>215.6339370645196</v>
+        <v>215.633937064519</v>
       </c>
       <c r="N16" t="n">
-        <v>216.0671043594677</v>
+        <v>216.0671043594671</v>
       </c>
       <c r="O16" t="n">
-        <v>195.9068061231943</v>
+        <v>195.9068061231937</v>
       </c>
       <c r="P16" t="n">
-        <v>160.0531063579904</v>
+        <v>160.0531063579897</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.29660940682153</v>
+        <v>58.29660940682089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>271.0430832011201</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
         <v>76.39716150335175</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -36060,10 +36060,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.68561682995292</v>
+        <v>28.58311525926155</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>437.7928506728723</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011206</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R20" t="n">
         <v>76.39716150335175</v>
@@ -36215,7 +36215,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36258,13 +36258,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>15.6401410461626</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7.677424594681691</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.45758488184836</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>422.734459192699</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789115</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>13.99522435731956</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.525113940178</v>
+        <v>201.5251139401778</v>
       </c>
       <c r="K26" t="n">
-        <v>371.3653440128822</v>
+        <v>322.4557868031193</v>
       </c>
       <c r="L26" t="n">
-        <v>480.1986783968857</v>
+        <v>480.1986783968855</v>
       </c>
       <c r="M26" t="n">
-        <v>526.0105906879379</v>
+        <v>526.0105906879377</v>
       </c>
       <c r="N26" t="n">
-        <v>510.952199207764</v>
+        <v>510.9521992077638</v>
       </c>
       <c r="O26" t="n">
-        <v>436.8847505058632</v>
+        <v>436.8847505058629</v>
       </c>
       <c r="P26" t="n">
-        <v>310.3512660064171</v>
+        <v>359.2608232161855</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.1854264793006</v>
+        <v>224.1854264793004</v>
       </c>
       <c r="R26" t="n">
-        <v>39.06740800530957</v>
+        <v>39.06740800530935</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.34264544444554</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7429356289031</v>
+        <v>162.7429356289028</v>
       </c>
       <c r="L28" t="n">
-        <v>230.4226241699294</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>247.984671369265</v>
+        <v>247.9846713692648</v>
       </c>
       <c r="N28" t="n">
-        <v>248.4178386642131</v>
+        <v>222.8114036606751</v>
       </c>
       <c r="O28" t="n">
-        <v>143.1944392244284</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
-        <v>63.604529018321</v>
+        <v>192.4038406627355</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.0907186946481</v>
+        <v>196.0907186946485</v>
       </c>
       <c r="K29" t="n">
-        <v>365.9309487673523</v>
+        <v>365.9309487673527</v>
       </c>
       <c r="L29" t="n">
-        <v>474.7642831513558</v>
+        <v>474.7642831513562</v>
       </c>
       <c r="M29" t="n">
-        <v>520.576195442408</v>
+        <v>520.5761954424084</v>
       </c>
       <c r="N29" t="n">
-        <v>505.5178039622341</v>
+        <v>505.5178039622344</v>
       </c>
       <c r="O29" t="n">
-        <v>431.4503552603333</v>
+        <v>431.4503552603337</v>
       </c>
       <c r="P29" t="n">
-        <v>353.8264279706558</v>
+        <v>353.8264279706561</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.7510312337707</v>
+        <v>218.7510312337711</v>
       </c>
       <c r="R29" t="n">
-        <v>33.63301275977966</v>
+        <v>33.63301275978004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.90825019891584</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>33.9436239844883</v>
+        <v>157.3085403833735</v>
       </c>
       <c r="L31" t="n">
-        <v>224.9882289243995</v>
+        <v>224.9882289243999</v>
       </c>
       <c r="M31" t="n">
-        <v>124.2537201887446</v>
+        <v>188.1619703876527</v>
       </c>
       <c r="N31" t="n">
-        <v>242.9834434186832</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>222.8231451824098</v>
+        <v>222.8231451824101</v>
       </c>
       <c r="P31" t="n">
-        <v>186.9694454172059</v>
+        <v>186.9694454172062</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.21294846603699</v>
+        <v>85.21294846603737</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
-        <v>382.1734978195568</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>412.9270186304349</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
         <v>232.1620433216358</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.3992410122646</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>255.9612882116002</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065483</v>
+        <v>138.0070069881072</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>179.6016431194466</v>
+        <v>200.3804575050709</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390208</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978166</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.284368163872024</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>283.1476039978169</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37564,7 +37564,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.284368163872024</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37713,7 +37713,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,16 +37792,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>425.0641719941493</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>12.94297421309903</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>31.5124001119767</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>408.6950975109244</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38026,7 +38026,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38035,10 +38035,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.967686464235</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
@@ -38154,22 +38154,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.21506407015293</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>123.2058083375978</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
